--- a/com.sevenmart/src/main/resources/ExcelFiles/pushNotificationData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/pushNotificationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15902499-B9AA-468F-9A9C-08B161FD35D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BDB64-A1A0-4307-B3B9-89FBF52DB0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
+    <workbookView xWindow="4871" yWindow="2216" windowWidth="18031" windowHeight="9304" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
   </bookViews>
   <sheets>
     <sheet name="pushMsg" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>best</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>bye</t>
+  </si>
+  <si>
+    <t>rgba(40, 167, 69, 1)</t>
   </si>
 </sst>
 </file>
@@ -389,28 +392,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88570174-FDC4-4D0B-88DC-DD95C60385BA}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
